--- a/최종 산출물/5조_PSP.xlsx
+++ b/최종 산출물/5조_PSP.xlsx
@@ -5,21 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\최종 산출물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C63C8DA-A8ED-4BE3-8659-E80C8ADBEADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E6906F-401A-4974-AE9D-A70951739937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="132" yWindow="852" windowWidth="9780" windowHeight="10536" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
-    <sheet name="김백준(휴학)" sheetId="2" r:id="rId2"/>
-    <sheet name="박진근" sheetId="3" r:id="rId3"/>
-    <sheet name="이미정" sheetId="4" r:id="rId4"/>
-    <sheet name="정동연" sheetId="5" r:id="rId5"/>
-    <sheet name="탁재인" sheetId="6" r:id="rId6"/>
-    <sheet name="TOTAL" sheetId="17" r:id="rId7"/>
+    <sheet name="박진근" sheetId="3" r:id="rId2"/>
+    <sheet name="이미정" sheetId="4" r:id="rId3"/>
+    <sheet name="정동연" sheetId="5" r:id="rId4"/>
+    <sheet name="탁재인" sheetId="6" r:id="rId5"/>
+    <sheet name="TOTAL" sheetId="17" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -235,7 +234,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -249,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -407,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -431,7 +430,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -445,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -603,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -627,7 +626,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -641,7 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -799,17 +798,278 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Soojin Park:
-원래 Phase를 기술하지만, 우리는 관련된 Activity가 뭔지를 기술하도록 함. 성혜가 작성하는 Test Case 정도의 Granulity로 작성할 것</t>
+          <t xml:space="preserve">Soojin Park:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>원래</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Phase</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>기술하지만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>우리는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>관련된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Activity</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>뭔지를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>기술하도록</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>함</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>성혜가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>작성하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Test Case </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>정도의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Granulity</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>작성할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>것</t>
         </r>
       </text>
     </comment>
@@ -823,463 +1083,6 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Soojin Park:
-작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Soojin Park:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>중간에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> interrupt </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>걸린</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>시간</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>포함</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>작업시간</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>. 10</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>분</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>단위로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">작성
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Soojin Park:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>원래</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Phase</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>기술하지만</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>우리는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>관련된</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Activity</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>뭔지를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>기술하도록</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>함</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>성혜가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>작성하는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Test Case </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>정도의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Granulity</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>작성할</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>것</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
     <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
@@ -1471,7 +1274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="130">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1520,10 +1323,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>김백준</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>박진근</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2573,14 +2372,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>계획서 작성</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>usecase outline 내용 추가</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>회의</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2811,98 +2602,6 @@
   </si>
   <si>
     <t>GUI</t>
-  </si>
-  <si>
-    <r>
-      <t>9월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 21일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 28일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 10일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>25일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>엑셀로 웹크롤링 해오기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 26일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>initial data set 작성</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GUI</t>
@@ -3547,12 +3246,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
+    <numFmt numFmtId="179" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3646,29 +3346,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="돋움"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -3749,7 +3426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -3825,23 +3502,10 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3853,6 +3517,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - 강조색6" xfId="3" builtinId="50"/>
@@ -4241,20 +3906,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4266,10 +3931,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4281,8 +3946,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.65" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4302,7 +3967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4319,11 +3984,11 @@
         <v>90</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -4340,11 +4005,11 @@
         <v>20</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -4361,10 +4026,10 @@
         <v>120</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -4381,10 +4046,10 @@
         <v>30</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -4401,10 +4066,10 @@
         <v>150</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -4421,10 +4086,10 @@
         <v>120</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -4441,10 +4106,10 @@
         <v>30</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -4461,10 +4126,10 @@
         <v>60</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -4481,10 +4146,10 @@
         <v>5</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -4501,10 +4166,10 @@
         <v>60</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -4521,10 +4186,10 @@
         <v>210</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -4541,10 +4206,10 @@
         <v>120</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -4561,10 +4226,10 @@
         <v>180</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -4581,10 +4246,10 @@
         <v>120</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -4601,10 +4266,10 @@
         <v>10</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -4621,10 +4286,10 @@
         <v>150</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -4641,10 +4306,10 @@
         <v>5</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -4660,11 +4325,11 @@
       <c r="E23" s="16">
         <v>30</v>
       </c>
-      <c r="F23" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -4681,10 +4346,10 @@
         <v>10</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -4701,10 +4366,10 @@
         <v>150</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -4721,10 +4386,10 @@
         <v>210</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>43764</v>
       </c>
@@ -4741,10 +4406,10 @@
         <v>90</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>43764</v>
       </c>
@@ -4761,10 +4426,10 @@
         <v>60</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>43771</v>
       </c>
@@ -4781,10 +4446,10 @@
         <v>110</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>43776</v>
       </c>
@@ -4801,10 +4466,10 @@
         <v>180</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>43778</v>
       </c>
@@ -4821,10 +4486,10 @@
         <v>330</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>43781</v>
       </c>
@@ -4841,10 +4506,10 @@
         <v>60</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43782</v>
       </c>
@@ -4861,10 +4526,10 @@
         <v>40</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>43785</v>
       </c>
@@ -4881,10 +4546,10 @@
         <v>30</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>43786</v>
       </c>
@@ -4901,10 +4566,10 @@
         <v>310</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>43790</v>
       </c>
@@ -4921,10 +4586,10 @@
         <v>360</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>43798</v>
       </c>
@@ -4941,10 +4606,10 @@
         <v>270</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>43799</v>
       </c>
@@ -4961,10 +4626,10 @@
         <v>210</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>43800</v>
       </c>
@@ -4981,10 +4646,10 @@
         <v>420</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>43802</v>
       </c>
@@ -5001,10 +4666,10 @@
         <v>30</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43805</v>
       </c>
@@ -5021,10 +4686,10 @@
         <v>90</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43807</v>
       </c>
@@ -5041,10 +4706,10 @@
         <v>180</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43808</v>
       </c>
@@ -5061,7 +4726,7 @@
         <v>480</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5076,21 +4741,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5102,12 +4766,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5119,11 +4783,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5143,109 +4807,109 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="44">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>43713</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="3">
         <v>0.875</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="3">
         <v>0.9375</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="8">
         <v>30</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="16">
         <v>90</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="44">
-        <v>43714</v>
-      </c>
-      <c r="B7" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D7" s="28">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="F6" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D7" s="8">
+        <v>30</v>
+      </c>
+      <c r="E7" s="16">
         <v>120</v>
       </c>
-      <c r="F7" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="44">
-        <v>43725</v>
-      </c>
-      <c r="B8" s="25">
+      <c r="F7" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3">
         <v>0.875</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="3">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D8" s="28">
-        <v>0</v>
-      </c>
-      <c r="E8" s="32">
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
         <v>120</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="44">
-        <v>43726</v>
-      </c>
-      <c r="B9" s="25">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0.8125</v>
-      </c>
-      <c r="D9" s="28">
-        <v>0</v>
-      </c>
-      <c r="E9" s="32">
-        <v>30</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="44">
-        <v>43727</v>
-      </c>
-      <c r="B10" s="25">
+      <c r="F8" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C9" s="3">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D10" s="28">
-        <v>0</v>
-      </c>
-      <c r="E10" s="32">
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
         <v>60</v>
       </c>
-      <c r="F10" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="44">
-        <v>43728</v>
+      <c r="F9" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>180</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>43730</v>
       </c>
       <c r="B11" s="25">
         <v>0.91666666666666663</v>
@@ -5260,38 +4924,38 @@
         <v>120</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="39">
-        <v>0</v>
-      </c>
-      <c r="C12" s="39">
-        <v>6.25E-2</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>43735</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.6875</v>
       </c>
       <c r="D12" s="28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E12" s="32">
         <v>90</v>
       </c>
-      <c r="F12" s="40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="44">
-        <v>43730</v>
+      <c r="F12" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>43736</v>
       </c>
       <c r="B13" s="25">
-        <v>0.91666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="C13" s="25">
-        <v>0</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D13" s="28">
         <v>0</v>
@@ -5300,51 +4964,51 @@
         <v>120</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="44">
-        <v>43735</v>
-      </c>
-      <c r="B14" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="C14" s="25">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D14" s="28">
-        <v>0</v>
-      </c>
-      <c r="E14" s="32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D14" s="8">
         <v>120</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="39">
+      <c r="E14" s="16">
+        <v>360</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C15" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C15" s="39">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D15" s="28">
-        <v>20</v>
-      </c>
-      <c r="E15" s="32">
-        <v>60</v>
+      <c r="D15" s="8">
+        <v>120</v>
+      </c>
+      <c r="E15" s="16">
+        <v>300</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="44">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
         <v>43742</v>
       </c>
       <c r="B16" s="25">
@@ -5360,12 +5024,12 @@
         <v>150</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="45" t="s">
-        <v>75</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>98</v>
       </c>
       <c r="B17" s="25">
         <v>0.6875</v>
@@ -5376,202 +5040,394 @@
       <c r="D17" s="28">
         <v>0</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D18" s="8">
+        <v>30</v>
+      </c>
+      <c r="E18" s="16">
+        <v>120</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="25">
+        <v>0</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D19" s="28">
+        <v>30</v>
+      </c>
+      <c r="E19" s="32">
+        <v>300</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="25">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D20" s="28">
+        <v>0</v>
+      </c>
+      <c r="E20" s="32">
+        <v>90</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="25">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D21" s="28">
+        <v>0</v>
+      </c>
+      <c r="E21" s="32">
+        <v>120</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D22" s="8">
+        <v>120</v>
+      </c>
+      <c r="E22" s="16">
+        <v>420</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C23" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>90</v>
+      </c>
+      <c r="E23" s="16">
+        <v>240</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>180</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>60</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="46">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C26" s="46">
+        <v>0.125</v>
+      </c>
+      <c r="D26" s="47">
+        <v>120</v>
+      </c>
+      <c r="E26" s="48">
+        <v>300</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <v>180</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="D28" s="8">
+        <v>90</v>
+      </c>
+      <c r="E28" s="16">
+        <v>180</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D29" s="8">
+        <v>90</v>
+      </c>
+      <c r="E29" s="16">
+        <v>240</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>120</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="8">
         <v>150</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="E31" s="16">
+        <v>360</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>120</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C33" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D18" s="8">
-        <v>70</v>
-      </c>
-      <c r="E18" s="16">
-        <v>110</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="D33" s="8">
+        <v>60</v>
+      </c>
+      <c r="E33" s="16">
+        <v>360</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C19" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D19" s="8">
-        <v>60</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>300</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="D35" s="8">
+        <v>30</v>
+      </c>
+      <c r="E35" s="16">
+        <v>330</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
         <v>120</v>
       </c>
-      <c r="F19" s="46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8">
-        <v>80</v>
-      </c>
-      <c r="E20" s="16">
-        <v>100</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F36" s="41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5579,7 +5435,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5599,20 +5455,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5624,12 +5481,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5638,14 +5495,14 @@
         <v>7</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5661,11 +5518,11 @@
       <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5682,138 +5539,138 @@
         <v>90</v>
       </c>
       <c r="F6" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>43714</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>120</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D7" s="8">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>43715</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
         <v>30</v>
       </c>
-      <c r="E7" s="16">
+      <c r="F8" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>43717</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0</v>
+      </c>
+      <c r="E9" s="32">
+        <v>150</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>43725</v>
+      </c>
+      <c r="B10" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0</v>
+      </c>
+      <c r="E10" s="33">
         <v>120</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F10" s="35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>43726</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.8125</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+      <c r="E11" s="32">
+        <v>30</v>
+      </c>
+      <c r="F11" s="34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="C8" s="3">
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>43727</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C12" s="25">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>120</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="D12" s="28">
+        <v>0</v>
+      </c>
+      <c r="E12" s="32">
+        <v>60</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>43728</v>
+      </c>
+      <c r="B13" s="25">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
-        <v>60</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.9375</v>
-      </c>
-      <c r="C10" s="5">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
-        <v>180</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
-        <v>43730</v>
-      </c>
-      <c r="B11" s="25">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="28">
-        <v>0</v>
-      </c>
-      <c r="E11" s="32">
-        <v>120</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
-        <v>43735</v>
-      </c>
-      <c r="B12" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="C12" s="25">
-        <v>0.6875</v>
-      </c>
-      <c r="D12" s="28">
-        <v>0</v>
-      </c>
-      <c r="E12" s="32">
-        <v>90</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
-        <v>43736</v>
-      </c>
-      <c r="B13" s="25">
-        <v>0.625</v>
-      </c>
       <c r="C13" s="25">
-        <v>0.70833333333333337</v>
+        <v>0</v>
       </c>
       <c r="D13" s="28">
         <v>0</v>
@@ -5822,484 +5679,688 @@
         <v>120</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C14" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>43730</v>
+      </c>
+      <c r="B14" s="25">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D14" s="8">
+      <c r="C14" s="25">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0</v>
+      </c>
+      <c r="E14" s="32">
         <v>120</v>
       </c>
-      <c r="E14" s="16">
-        <v>360</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="F14" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>43735</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0</v>
+      </c>
+      <c r="E15" s="32">
         <v>120</v>
       </c>
-      <c r="E15" s="16">
-        <v>300</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
+        <v>43738</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C16" s="25">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0</v>
+      </c>
+      <c r="E16" s="32">
+        <v>60</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>43739</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="D17" s="8">
+        <v>30</v>
+      </c>
+      <c r="E17" s="16">
+        <v>150</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>43739</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>30</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
         <v>43742</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B19" s="25">
         <v>0.625</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C19" s="25">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D16" s="28">
-        <v>0</v>
-      </c>
-      <c r="E16" s="32">
+      <c r="D19" s="28">
+        <v>0</v>
+      </c>
+      <c r="E19" s="32">
         <v>150</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="25">
+      <c r="F19" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>43744</v>
+      </c>
+      <c r="B20" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D20" s="28">
+        <v>0</v>
+      </c>
+      <c r="E20" s="32">
+        <v>120</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>43748</v>
+      </c>
+      <c r="B21" s="25">
         <v>0.6875</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C21" s="25">
         <v>0.75</v>
       </c>
-      <c r="D17" s="28">
-        <v>0</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="D21" s="28">
+        <v>0</v>
+      </c>
+      <c r="E21" s="32">
+        <v>150</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>43766</v>
+      </c>
+      <c r="B22" s="25">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D22" s="28">
+        <v>20</v>
+      </c>
+      <c r="E22" s="32">
+        <v>40</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>43768</v>
+      </c>
+      <c r="B23" s="25">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C23" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D23" s="28">
+        <v>60</v>
+      </c>
+      <c r="E23" s="32">
+        <v>180</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>43772</v>
+      </c>
+      <c r="B24" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
+      <c r="D24" s="28">
+        <v>0</v>
+      </c>
+      <c r="E24" s="32">
+        <v>60</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>43776</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>90</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>43779</v>
+      </c>
+      <c r="B26" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C26" s="25">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D26" s="28">
+        <v>0</v>
+      </c>
+      <c r="E26" s="32">
+        <v>120</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>43780</v>
+      </c>
+      <c r="B27" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C27" s="25">
         <v>0.875</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D27" s="28">
+        <v>0</v>
+      </c>
+      <c r="E27" s="32">
+        <v>60</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>43783</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D28" s="8">
+        <v>60</v>
+      </c>
+      <c r="E28" s="16">
+        <v>150</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>43792</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>180</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>43793</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>210</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>43797</v>
+      </c>
+      <c r="B31" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>60</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>43797</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>150</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>43799</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>120</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>43800</v>
+      </c>
+      <c r="B34" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>150</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>43800</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="C35" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D35" s="8">
+        <v>60</v>
+      </c>
+      <c r="E35" s="16">
+        <v>150</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>43804</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <v>240</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>43806</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16">
+        <v>120</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>43806</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="D38" s="8">
+        <v>120</v>
+      </c>
+      <c r="E38" s="16">
+        <v>390</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>43806</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C39" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="16">
+        <v>150</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>43807</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8">
+        <v>90</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="50">
+        <v>43807</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0</v>
+      </c>
+      <c r="E41" s="8">
+        <v>150</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="50">
+        <v>43807</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="8">
+        <v>60</v>
+      </c>
+      <c r="E42" s="8">
+        <v>330</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="50">
+        <v>43808</v>
+      </c>
+      <c r="B43" s="25">
+        <v>0.125</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="D43" s="28">
+        <v>0</v>
+      </c>
+      <c r="E43" s="28">
+        <v>180</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="50">
+        <v>43808</v>
+      </c>
+      <c r="B44" s="25">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C44" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="28">
+        <v>0</v>
+      </c>
+      <c r="E44" s="28">
+        <v>120</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A45" s="50">
+        <v>43808</v>
+      </c>
+      <c r="B45" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C45" s="25">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D45" s="28">
+        <v>0</v>
+      </c>
+      <c r="E45" s="28">
+        <v>270</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="50">
+        <v>43808</v>
+      </c>
+      <c r="B46" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C46" s="25">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D46" s="28">
+        <v>0</v>
+      </c>
+      <c r="E46" s="28">
+        <v>150</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="50">
+        <v>43809</v>
+      </c>
+      <c r="B47" s="25">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C47" s="25">
+        <v>0.125</v>
+      </c>
+      <c r="D47" s="28">
         <v>30</v>
       </c>
-      <c r="E18" s="16">
-        <v>120</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="25">
-        <v>0</v>
-      </c>
-      <c r="C19" s="25">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="D19" s="28">
-        <v>30</v>
-      </c>
-      <c r="E19" s="32">
-        <v>300</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="25">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="C20" s="25">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D20" s="28">
-        <v>0</v>
-      </c>
-      <c r="E20" s="32">
-        <v>90</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="25">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C21" s="25">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D21" s="28">
-        <v>0</v>
-      </c>
-      <c r="E21" s="32">
-        <v>120</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="D22" s="8">
-        <v>120</v>
-      </c>
-      <c r="E22" s="16">
-        <v>420</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C23" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D23" s="8">
-        <v>90</v>
-      </c>
-      <c r="E23" s="16">
-        <v>240</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
-        <v>180</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="16">
+      <c r="E47" s="28">
         <v>60</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="51">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C26" s="51">
-        <v>0.125</v>
-      </c>
-      <c r="D26" s="52">
-        <v>120</v>
-      </c>
-      <c r="E26" s="53">
-        <v>300</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="16">
-        <v>180</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="D28" s="8">
-        <v>90</v>
-      </c>
-      <c r="E28" s="16">
-        <v>180</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D29" s="8">
-        <v>90</v>
-      </c>
-      <c r="E29" s="16">
-        <v>240</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="16">
-        <v>120</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D31" s="8">
-        <v>150</v>
-      </c>
-      <c r="E31" s="16">
-        <v>360</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0</v>
-      </c>
-      <c r="E32" s="16">
-        <v>120</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C33" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D33" s="8">
-        <v>60</v>
-      </c>
-      <c r="E33" s="16">
-        <v>360</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D34" s="8">
-        <v>0</v>
-      </c>
-      <c r="E34" s="16">
-        <v>300</v>
-      </c>
-      <c r="F34" s="46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="D35" s="8">
-        <v>30</v>
-      </c>
-      <c r="E35" s="16">
-        <v>330</v>
-      </c>
-      <c r="F35" s="47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8">
-        <v>120</v>
-      </c>
-      <c r="F36" s="46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="4"/>
+      <c r="F47" s="34" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -6313,23 +6374,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6339,12 +6400,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6353,14 +6414,14 @@
         <v>7</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6376,11 +6437,11 @@
       <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -6397,10 +6458,10 @@
         <v>90</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -6417,518 +6478,518 @@
         <v>120</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <v>43715</v>
+        <v>43725</v>
       </c>
       <c r="B8" s="3">
-        <v>4.1666666666666664E-2</v>
+        <v>0.875</v>
       </c>
       <c r="C8" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>120</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>43726</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D9" s="8">
+        <v>30</v>
+      </c>
+      <c r="E9" s="15">
+        <v>120</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>43727</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>60</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>43728</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="C11" s="3">
         <v>6.25E-2</v>
       </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>43729</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>43730</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>43735</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>43736</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>43742</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>43747</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>43748</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>43748</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>43749</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>43750</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>43751</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>43764</v>
+      </c>
+      <c r="B23" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D23" s="28">
         <v>30</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="30">
-        <v>43717</v>
-      </c>
-      <c r="B9" s="25">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C9" s="25">
+      <c r="E23" s="32">
+        <v>60</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>43764</v>
+      </c>
+      <c r="B24" s="25">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="D24" s="28">
+        <v>50</v>
+      </c>
+      <c r="E24" s="32">
+        <v>240</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>43774</v>
+      </c>
+      <c r="B25" s="25">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0.6875</v>
+      </c>
+      <c r="D25" s="28">
+        <v>20</v>
+      </c>
+      <c r="E25" s="32">
+        <v>60</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>43777</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="D26" s="8">
+        <v>360</v>
+      </c>
+      <c r="E26" s="16">
+        <v>700</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>43778</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
+        <v>100</v>
+      </c>
+      <c r="E27" s="16">
+        <v>420</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <v>43778</v>
+      </c>
+      <c r="B28" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D28" s="8">
+        <v>30</v>
+      </c>
+      <c r="E28" s="16">
+        <v>120</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>43785</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="8">
+        <v>30</v>
+      </c>
+      <c r="E29" s="16">
+        <v>300</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
+        <v>43791</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
+        <v>400</v>
+      </c>
+      <c r="E30" s="16">
+        <v>720</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <v>43794</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>150</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>43796</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C32" s="3">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D9" s="28">
-        <v>0</v>
-      </c>
-      <c r="E9" s="32">
-        <v>150</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="31">
-        <v>43725</v>
-      </c>
-      <c r="B10" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="C10" s="27">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D10" s="29">
-        <v>0</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="D32" s="8">
+        <v>30</v>
+      </c>
+      <c r="E32" s="16">
         <v>120</v>
       </c>
-      <c r="F10" s="35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
-        <v>43726</v>
-      </c>
-      <c r="B11" s="25">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0.8125</v>
-      </c>
-      <c r="D11" s="28">
-        <v>0</v>
-      </c>
-      <c r="E11" s="32">
-        <v>30</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
-        <v>43727</v>
-      </c>
-      <c r="B12" s="25">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C12" s="25">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D12" s="28">
-        <v>0</v>
-      </c>
-      <c r="E12" s="32">
-        <v>60</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
-        <v>43728</v>
-      </c>
-      <c r="B13" s="25">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="28">
-        <v>0</v>
-      </c>
-      <c r="E13" s="32">
-        <v>120</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
-        <v>43730</v>
-      </c>
-      <c r="B14" s="25">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C14" s="25">
-        <v>0</v>
-      </c>
-      <c r="D14" s="28">
-        <v>0</v>
-      </c>
-      <c r="E14" s="32">
-        <v>120</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="30">
-        <v>43735</v>
-      </c>
-      <c r="B15" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="25">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D15" s="28">
-        <v>0</v>
-      </c>
-      <c r="E15" s="32">
-        <v>120</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="30">
-        <v>43738</v>
-      </c>
-      <c r="B16" s="25">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="C16" s="25">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D16" s="28">
-        <v>0</v>
-      </c>
-      <c r="E16" s="32">
-        <v>60</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>43739</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="D17" s="8">
-        <v>30</v>
-      </c>
-      <c r="E17" s="16">
-        <v>150</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
-        <v>43739</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
-        <v>30</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="30">
-        <v>43742</v>
-      </c>
-      <c r="B19" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="C19" s="25">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D19" s="28">
-        <v>0</v>
-      </c>
-      <c r="E19" s="32">
-        <v>150</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="30">
-        <v>43744</v>
-      </c>
-      <c r="B20" s="25">
-        <v>0.875</v>
-      </c>
-      <c r="C20" s="25">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D20" s="28">
-        <v>0</v>
-      </c>
-      <c r="E20" s="32">
-        <v>120</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="30">
-        <v>43748</v>
-      </c>
-      <c r="B21" s="25">
-        <v>0.6875</v>
-      </c>
-      <c r="C21" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="D21" s="28">
-        <v>0</v>
-      </c>
-      <c r="E21" s="32">
-        <v>150</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="30">
-        <v>43766</v>
-      </c>
-      <c r="B22" s="25">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C22" s="25">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D22" s="28">
-        <v>20</v>
-      </c>
-      <c r="E22" s="32">
-        <v>40</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="30">
-        <v>43768</v>
-      </c>
-      <c r="B23" s="25">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C23" s="25">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D23" s="28">
-        <v>60</v>
-      </c>
-      <c r="E23" s="32">
-        <v>180</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="30">
-        <v>43772</v>
-      </c>
-      <c r="B24" s="25">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C24" s="25">
-        <v>0</v>
-      </c>
-      <c r="D24" s="28">
-        <v>0</v>
-      </c>
-      <c r="E24" s="32">
-        <v>60</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
-        <v>43776</v>
-      </c>
-      <c r="B25" s="3">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="16">
-        <v>90</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="30">
-        <v>43779</v>
-      </c>
-      <c r="B26" s="25">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C26" s="25">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D26" s="28">
-        <v>0</v>
-      </c>
-      <c r="E26" s="32">
-        <v>120</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="30">
-        <v>43780</v>
-      </c>
-      <c r="B27" s="25">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C27" s="25">
-        <v>0.875</v>
-      </c>
-      <c r="D27" s="28">
-        <v>0</v>
-      </c>
-      <c r="E27" s="32">
-        <v>60</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
-        <v>43783</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D28" s="8">
-        <v>60</v>
-      </c>
-      <c r="E28" s="16">
-        <v>150</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
-        <v>43792</v>
-      </c>
-      <c r="B29" s="3">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="16">
-        <v>180</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
-        <v>43793</v>
-      </c>
-      <c r="B30" s="3">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="16">
-        <v>210</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
-        <v>43797</v>
-      </c>
-      <c r="B31" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c r="E31" s="16">
-        <v>60</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
-        <v>43797</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C32" s="3">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0</v>
-      </c>
-      <c r="E32" s="16">
-        <v>150</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43799</v>
       </c>
       <c r="B33" s="3">
-        <v>0.4375</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C33" s="3">
-        <v>0.52083333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D33" s="8">
         <v>0</v>
@@ -6936,117 +6997,189 @@
       <c r="E33" s="16">
         <v>120</v>
       </c>
-      <c r="F33" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
-        <v>43800</v>
-      </c>
-      <c r="B34" s="3">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="D34" s="8">
-        <v>0</v>
-      </c>
-      <c r="E34" s="16">
-        <v>150</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="30">
+        <v>43801</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C34" s="25">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D34" s="28">
+        <v>170</v>
+      </c>
+      <c r="E34" s="28">
+        <v>480</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
-        <v>43800</v>
+        <v>43802</v>
       </c>
       <c r="B35" s="3">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D35" s="8">
+        <v>30</v>
+      </c>
+      <c r="E35" s="16">
+        <v>130</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>43803</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D36" s="8">
+        <v>60</v>
+      </c>
+      <c r="E36" s="8">
+        <v>180</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>43803</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>60</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="30">
+        <v>43804</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
+        <v>90</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>43805</v>
+      </c>
+      <c r="B39" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C39" s="25">
         <v>0.9375</v>
       </c>
-      <c r="C35" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D35" s="8">
+      <c r="D39" s="28">
         <v>60</v>
       </c>
-      <c r="E35" s="16">
-        <v>150</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
-        <v>43804</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="C36" s="3">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0</v>
-      </c>
-      <c r="E36" s="16">
-        <v>240</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="4"/>
+      <c r="E39" s="28">
+        <v>510</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="30">
+        <v>43806</v>
+      </c>
+      <c r="B40" s="25">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C40" s="25">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D40" s="28">
+        <v>0</v>
+      </c>
+      <c r="E40" s="28">
+        <v>90</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
+        <v>43806</v>
+      </c>
+      <c r="B41" s="25">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C41" s="25">
+        <v>0.6875</v>
+      </c>
+      <c r="D41" s="28">
+        <v>20</v>
+      </c>
+      <c r="E41" s="28">
+        <v>120</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <v>43806</v>
+      </c>
+      <c r="B42" s="25">
+        <v>0.6875</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D42" s="28">
+        <v>0</v>
+      </c>
+      <c r="E42" s="28">
+        <v>60</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -7060,23 +7193,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7086,12 +7219,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -7103,11 +7236,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7127,7 +7260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -7144,10 +7277,10 @@
         <v>90</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -7160,14 +7293,14 @@
       <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="16">
         <v>120</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -7180,1133 +7313,314 @@
       <c r="D8" s="8">
         <v>0</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>120</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
-        <v>43726</v>
+        <v>43727</v>
       </c>
       <c r="B9" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>60</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>43728</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>180</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>43730</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>120</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>43735</v>
+      </c>
+      <c r="B12" s="25">
         <v>0.625</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C12" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>43736</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C13" s="25">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>43742</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>43747</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>43748</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0.6875</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
+        <v>43763</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C17" s="25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D17" s="28">
+        <v>70</v>
+      </c>
+      <c r="E17" s="32">
+        <v>110</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>43764</v>
+      </c>
+      <c r="B18" s="25">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D18" s="28">
+        <v>60</v>
+      </c>
+      <c r="E18" s="32">
+        <v>120</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>43764</v>
+      </c>
+      <c r="B19" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="C19" s="25">
+        <v>1</v>
+      </c>
+      <c r="D19" s="28">
+        <v>80</v>
+      </c>
+      <c r="E19" s="32">
+        <v>100</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>43766</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
         <v>30</v>
       </c>
-      <c r="E9" s="15">
+      <c r="F20" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>43778</v>
+      </c>
+      <c r="B21" s="25">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0</v>
+      </c>
+      <c r="D21" s="28">
+        <v>100</v>
+      </c>
+      <c r="E21" s="32">
+        <v>420</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>43779</v>
+      </c>
+      <c r="B22" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C22" s="25">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D22" s="28">
+        <v>0</v>
+      </c>
+      <c r="E22" s="32">
         <v>120</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>43727</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>60</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
-        <v>43728</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.9375</v>
-      </c>
-      <c r="C11" s="3">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
-        <v>43729</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
-        <v>43730</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>43735</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="30">
-        <v>43736</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
-        <v>43742</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>43747</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.65972222222222221</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
-        <v>43748</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.6875</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="30">
-        <v>43748</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="F22" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>43780</v>
+      </c>
+      <c r="B23" s="25">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="30">
-        <v>43749</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="C23" s="25">
         <v>0.875</v>
       </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="30">
-        <v>43750</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.9375</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="30">
-        <v>43751</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="30">
-        <v>43764</v>
-      </c>
-      <c r="B23" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="C23" s="25">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="D23" s="28">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E23" s="32">
         <v>60</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="30">
-        <v>43764</v>
-      </c>
-      <c r="B24" s="25">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C24" s="25">
-        <v>0.875</v>
-      </c>
-      <c r="D24" s="28">
-        <v>50</v>
-      </c>
-      <c r="E24" s="32">
-        <v>240</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="30">
-        <v>43774</v>
-      </c>
-      <c r="B25" s="25">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C25" s="25">
-        <v>0.6875</v>
-      </c>
-      <c r="D25" s="28">
-        <v>20</v>
-      </c>
-      <c r="E25" s="32">
-        <v>60</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
-        <v>43777</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="D26" s="8">
-        <v>360</v>
-      </c>
-      <c r="E26" s="16">
-        <v>700</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
-        <v>43778</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="8">
-        <v>100</v>
-      </c>
-      <c r="E27" s="16">
-        <v>420</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="30">
-        <v>43778</v>
-      </c>
-      <c r="B28" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D28" s="8">
-        <v>30</v>
-      </c>
-      <c r="E28" s="16">
-        <v>120</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
-        <v>43785</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D29" s="8">
-        <v>30</v>
-      </c>
-      <c r="E29" s="16">
-        <v>300</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="30">
-        <v>43791</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8">
-        <v>400</v>
-      </c>
-      <c r="E30" s="16">
-        <v>720</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="30">
-        <v>43794</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.6875</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c r="E31" s="16">
-        <v>150</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
-        <v>43796</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D32" s="8">
-        <v>30</v>
-      </c>
-      <c r="E32" s="16">
-        <v>120</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
-        <v>43799</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="16">
-        <v>120</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="30">
-        <v>43801</v>
-      </c>
-      <c r="B34" s="25">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C34" s="25">
-        <v>0.80555555555555547</v>
-      </c>
-      <c r="D34" s="28">
-        <v>170</v>
-      </c>
-      <c r="E34" s="28">
-        <v>480</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
-        <v>43802</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D35" s="8">
-        <v>30</v>
-      </c>
-      <c r="E35" s="16">
-        <v>130</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
-        <v>43803</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D36" s="8">
-        <v>60</v>
-      </c>
-      <c r="E36" s="8">
-        <v>180</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="30">
-        <v>43803</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="8">
-        <v>0</v>
-      </c>
-      <c r="E37" s="8">
-        <v>60</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="30">
-        <v>43804</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D38" s="8">
-        <v>0</v>
-      </c>
-      <c r="E38" s="8">
-        <v>90</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="30">
-        <v>43805</v>
-      </c>
-      <c r="B39" s="25">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C39" s="25">
-        <v>0.9375</v>
-      </c>
-      <c r="D39" s="28">
-        <v>60</v>
-      </c>
-      <c r="E39" s="28">
-        <v>510</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="30">
-        <v>43806</v>
-      </c>
-      <c r="B40" s="25">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C40" s="25">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D40" s="28">
-        <v>0</v>
-      </c>
-      <c r="E40" s="28">
-        <v>90</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="30">
-        <v>43806</v>
-      </c>
-      <c r="B41" s="25">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C41" s="25">
-        <v>0.6875</v>
-      </c>
-      <c r="D41" s="28">
-        <v>20</v>
-      </c>
-      <c r="E41" s="28">
-        <v>120</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="30">
-        <v>43806</v>
-      </c>
-      <c r="B42" s="25">
-        <v>0.6875</v>
-      </c>
-      <c r="C42" s="25">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D42" s="28">
-        <v>0</v>
-      </c>
-      <c r="E42" s="28">
-        <v>60</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>43713</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.9375</v>
-      </c>
-      <c r="D6" s="8">
-        <v>30</v>
-      </c>
-      <c r="E6" s="16">
-        <v>90</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>43714</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>120</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>43725</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>120</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>43727</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
-        <v>60</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
-        <v>43728</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.9375</v>
-      </c>
-      <c r="C10" s="5">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
-        <v>180</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>43730</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>120</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
-        <v>43735</v>
-      </c>
-      <c r="B12" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="C12" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="D12" s="28">
-        <v>0</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
-        <v>43736</v>
-      </c>
-      <c r="B13" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="C13" s="25">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D13" s="28">
-        <v>0</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
-        <v>43742</v>
-      </c>
-      <c r="B14" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="C14" s="25">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D14" s="28">
-        <v>0</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="30">
-        <v>43747</v>
-      </c>
-      <c r="B15" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="C15" s="25">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D15" s="28">
-        <v>0</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="30">
-        <v>43748</v>
-      </c>
-      <c r="B16" s="25">
-        <v>0.6875</v>
-      </c>
-      <c r="C16" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="D16" s="28">
-        <v>0</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="30">
-        <v>43763</v>
-      </c>
-      <c r="B17" s="25">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C17" s="25">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D17" s="28">
-        <v>70</v>
-      </c>
-      <c r="E17" s="32">
-        <v>110</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
-        <v>43764</v>
-      </c>
-      <c r="B18" s="25">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C18" s="25">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D18" s="28">
-        <v>60</v>
-      </c>
-      <c r="E18" s="32">
-        <v>120</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="30">
-        <v>43764</v>
-      </c>
-      <c r="B19" s="25">
-        <v>0.875</v>
-      </c>
-      <c r="C19" s="25">
-        <v>1</v>
-      </c>
-      <c r="D19" s="28">
-        <v>80</v>
-      </c>
-      <c r="E19" s="32">
-        <v>100</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
-        <v>43766</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
-        <v>30</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="30">
-        <v>43778</v>
-      </c>
-      <c r="B21" s="25">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C21" s="25">
-        <v>0</v>
-      </c>
-      <c r="D21" s="28">
-        <v>100</v>
-      </c>
-      <c r="E21" s="32">
-        <v>420</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="30">
-        <v>43779</v>
-      </c>
-      <c r="B22" s="25">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C22" s="25">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D22" s="28">
-        <v>0</v>
-      </c>
-      <c r="E22" s="32">
-        <v>120</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="30">
-        <v>43780</v>
-      </c>
-      <c r="B23" s="25">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C23" s="25">
-        <v>0.875</v>
-      </c>
-      <c r="D23" s="28">
-        <v>0</v>
-      </c>
-      <c r="E23" s="32">
-        <v>60</v>
-      </c>
       <c r="F23" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>43783</v>
       </c>
@@ -8323,10 +7637,10 @@
         <v>150</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>43783</v>
       </c>
@@ -8343,10 +7657,10 @@
         <v>80</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>43785</v>
       </c>
@@ -8363,10 +7677,10 @@
         <v>30</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>43794</v>
       </c>
@@ -8383,10 +7697,10 @@
         <v>180</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>43801</v>
       </c>
@@ -8403,10 +7717,10 @@
         <v>180</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>43802</v>
       </c>
@@ -8423,10 +7737,10 @@
         <v>180</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>43804</v>
       </c>
@@ -8443,10 +7757,10 @@
         <v>150</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>43805</v>
       </c>
@@ -8463,10 +7777,10 @@
         <v>120</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>43807</v>
       </c>
@@ -8483,10 +7797,10 @@
         <v>180</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43807</v>
       </c>
@@ -8503,11 +7817,11 @@
         <v>180</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="54">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="49">
         <v>43807</v>
       </c>
       <c r="B34" s="3">
@@ -8523,11 +7837,11 @@
         <v>120</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="54">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="49">
         <v>43808</v>
       </c>
       <c r="B35" s="3">
@@ -8543,7 +7857,7 @@
         <v>180</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -8558,78 +7872,78 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:E19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="D4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="E4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A5,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A5,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A5,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A5,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A5,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A5,탁재인!D:D)</f>
-        <v>180</v>
+        <f>SUMIF(김혜민!F:F,TOTAL!A5,김혜민!D:D)+SUMIF(박진근!F:F,TOTAL!A5,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A5,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A5,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A5,탁재인!D:D)</f>
+        <v>150</v>
       </c>
       <c r="C5" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A5,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A5,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A5,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A5,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A5,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A5,탁재인!E:E)</f>
-        <v>540</v>
+        <f>SUMIF(김혜민!F:F,TOTAL!A5,김혜민!E:E)+SUMIF(박진근!F:F,TOTAL!A5,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A5,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A5,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A5,탁재인!E:E)</f>
+        <v>450</v>
       </c>
       <c r="D5" s="37">
         <f t="shared" ref="D5:D11" si="0">C5-B5</f>
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A6,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A6,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A6,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A6,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A6,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A6,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A6,김혜민!D:D)+SUMIF(박진근!F:F,TOTAL!A6,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A6,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A6,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A6,탁재인!D:D)</f>
         <v>0</v>
       </c>
       <c r="C6" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A6,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A6,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A6,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A6,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A6,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A6,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A6,김혜민!E:E)+SUMIF(박진근!F:F,TOTAL!A6,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A6,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A6,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A6,탁재인!E:E)</f>
         <v>50</v>
       </c>
       <c r="D6" s="37">
@@ -8637,79 +7951,79 @@
         <v>50</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A7,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A7,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A7,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A7,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!D:D)+SUMIF(박진근!F:F,TOTAL!A7,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A7,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A7,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!D:D)</f>
         <v>0</v>
       </c>
       <c r="C7" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A7,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A7,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A7,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A7,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!E:E)</f>
-        <v>5010</v>
+        <f>SUMIF(김혜민!F:F,TOTAL!A7,김혜민!E:E)+SUMIF(박진근!F:F,TOTAL!A7,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A7,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A7,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A7,탁재인!E:E)</f>
+        <v>4050</v>
       </c>
       <c r="D7" s="37">
         <f t="shared" si="0"/>
-        <v>5010</v>
+        <v>4050</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A8,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A8,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A8,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A8,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A8,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A8,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A8,김혜민!D:D)+SUMIF(박진근!F:F,TOTAL!A8,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A8,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A8,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A8,탁재인!D:D)</f>
         <v>0</v>
       </c>
       <c r="C8" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A8,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A8,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A8,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A8,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A8,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A8,탁재인!E:E)</f>
-        <v>120</v>
+        <f>SUMIF(김혜민!F:F,TOTAL!A8,김혜민!E:E)+SUMIF(박진근!F:F,TOTAL!A8,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A8,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A8,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A8,탁재인!E:E)</f>
+        <v>90</v>
       </c>
       <c r="D8" s="37">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A9,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A9,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A9,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A9,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A9,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A9,탁재인!D:D)</f>
-        <v>120</v>
+        <f>SUMIF(김혜민!F:F,TOTAL!A9,김혜민!D:D)+SUMIF(박진근!F:F,TOTAL!A9,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A9,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A9,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A9,탁재인!D:D)</f>
+        <v>150</v>
       </c>
       <c r="C9" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A9,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A9,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A9,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A9,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A9,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A9,탁재인!E:E)</f>
-        <v>810</v>
+        <f>SUMIF(김혜민!F:F,TOTAL!A9,김혜민!E:E)+SUMIF(박진근!F:F,TOTAL!A9,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A9,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A9,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A9,탁재인!E:E)</f>
+        <v>870</v>
       </c>
       <c r="D9" s="37">
         <f t="shared" si="0"/>
-        <v>690</v>
+        <v>720</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A10,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A10,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A10,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A10,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A10,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A10,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A10,김혜민!D:D)+SUMIF(박진근!F:F,TOTAL!A10,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A10,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A10,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A10,탁재인!D:D)</f>
         <v>0</v>
       </c>
       <c r="C10" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A10,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A10,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A10,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A10,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A10,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A10,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A10,김혜민!E:E)+SUMIF(박진근!F:F,TOTAL!A10,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A10,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A10,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A10,탁재인!E:E)</f>
         <v>30</v>
       </c>
       <c r="D10" s="37">
@@ -8717,19 +8031,19 @@
         <v>30</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A11,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A11,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A11,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A11,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A11,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A11,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A11,김혜민!D:D)+SUMIF(박진근!F:F,TOTAL!A11,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A11,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A11,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A11,탁재인!D:D)</f>
         <v>320</v>
       </c>
       <c r="C11" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A11,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A11,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A11,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A11,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A11,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A11,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A11,김혜민!E:E)+SUMIF(박진근!F:F,TOTAL!A11,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A11,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A11,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A11,탁재인!E:E)</f>
         <v>1590</v>
       </c>
       <c r="D11" s="37">
@@ -8737,19 +8051,19 @@
         <v>1270</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A12,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A12,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A12,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A12,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A12,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A12,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A12,김혜민!D:D)+SUMIF(박진근!F:F,TOTAL!A12,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A12,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A12,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A12,탁재인!D:D)</f>
         <v>270</v>
       </c>
       <c r="C12" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A12,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A12,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A12,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A12,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A12,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A12,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A12,김혜민!E:E)+SUMIF(박진근!F:F,TOTAL!A12,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A12,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A12,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A12,탁재인!E:E)</f>
         <v>900</v>
       </c>
       <c r="D12" s="37">
@@ -8757,133 +8071,133 @@
         <v>630</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A13,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A13,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A13,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A13,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A13,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A13,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A13,김혜민!D:D)+SUMIF(박진근!F:F,TOTAL!A13,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A13,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A13,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A13,탁재인!D:D)</f>
         <v>80</v>
       </c>
       <c r="C13" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A13,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A13,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A13,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A13,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A13,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A13,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A13,김혜민!E:E)+SUMIF(박진근!F:F,TOTAL!A13,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A13,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A13,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A13,탁재인!E:E)</f>
         <v>480</v>
       </c>
       <c r="D13" s="37">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>60</v>
-      </c>
       <c r="B14" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A14,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A14,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A14,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A14,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A14,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A14,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A14,김혜민!D:D)+SUMIF(박진근!F:F,TOTAL!A14,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A14,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A14,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A14,탁재인!D:D)</f>
         <v>260</v>
       </c>
       <c r="C14" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A14,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A14,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A14,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A14,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A14,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A14,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A14,김혜민!E:E)+SUMIF(박진근!F:F,TOTAL!A14,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A14,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A14,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A14,탁재인!E:E)</f>
         <v>1020</v>
       </c>
       <c r="D14" s="37">
         <f t="shared" si="1"/>
         <v>760</v>
       </c>
-      <c r="E14" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B15" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A15,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A15,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A15,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A15,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A15,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A15,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A15,김혜민!D:D)+SUMIF(박진근!F:F,TOTAL!A15,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A15,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A15,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A15,탁재인!D:D)</f>
         <v>0</v>
       </c>
       <c r="C15" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A15,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A15,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A15,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A15,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A15,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A15,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A15,김혜민!E:E)+SUMIF(박진근!F:F,TOTAL!A15,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A15,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A15,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A15,탁재인!E:E)</f>
         <v>170</v>
       </c>
       <c r="D15" s="37">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="E15" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B16" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A16,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A16,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A16,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A16,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!D:D)+SUMIF(박진근!F:F,TOTAL!A16,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A16,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A16,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!D:D)</f>
         <v>130</v>
       </c>
       <c r="C16" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A16,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A16,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A16,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A16,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A16,김혜민!E:E)+SUMIF(박진근!F:F,TOTAL!A16,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A16,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A16,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A16,탁재인!E:E)</f>
         <v>590</v>
       </c>
       <c r="D16" s="37">
         <f t="shared" ref="D16" si="2">C16-B16</f>
         <v>460</v>
       </c>
-      <c r="E16" s="42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B17" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A17,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A17,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A17,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A17,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A17,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A17,탁재인!D:D)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A17,김혜민!D:D)+SUMIF(박진근!F:F,TOTAL!A17,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A17,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A17,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A17,탁재인!D:D)</f>
         <v>30</v>
       </c>
       <c r="C17" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A17,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A17,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A17,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A17,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A17,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A17,탁재인!E:E)</f>
+        <f>SUMIF(김혜민!F:F,TOTAL!A17,김혜민!E:E)+SUMIF(박진근!F:F,TOTAL!A17,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A17,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A17,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A17,탁재인!E:E)</f>
         <v>120</v>
       </c>
       <c r="D17" s="37">
         <f t="shared" ref="D17" si="3">C17-B17</f>
         <v>90</v>
       </c>
-      <c r="E17" s="42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B18" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
-        <v>2740</v>
+        <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
+        <v>2920</v>
       </c>
       <c r="C18" s="37">
-        <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF('김백준(휴학)'!F:F,TOTAL!A18,'김백준(휴학)'!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>12470</v>
+        <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
+        <v>14420</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>9730</v>
+        <v>11500</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="49"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/최종 산출물/5조_PSP.xlsx
+++ b/최종 산출물/5조_PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/최종 산출물/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E6906F-401A-4974-AE9D-A70951739937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBAFA8F-813B-4C47-BC42-E07BE74F7241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="852" windowWidth="9780" windowHeight="10536" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="860" windowWidth="10000" windowHeight="10540" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="탁재인" sheetId="6" r:id="rId5"/>
     <sheet name="TOTAL" sheetId="17" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1274,7 +1274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="130">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3252,7 +3252,7 @@
     <numFmt numFmtId="178" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
     <numFmt numFmtId="179" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3910,16 +3910,16 @@
       <selection activeCell="A43" sqref="A43:F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="11.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3931,10 +3931,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="11.75" customHeight="1">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="11.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3946,8 +3946,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13">
         <v>43764</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="13">
         <v>43764</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13">
         <v>43771</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="14">
       <c r="A30" s="13">
         <v>43776</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="13">
         <v>43778</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="13">
         <v>43781</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="13">
         <v>43782</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="13">
         <v>43785</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="13">
         <v>43786</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="13">
         <v>43790</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" s="13">
         <v>43798</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="13">
         <v>43799</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="13">
         <v>43800</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="13">
         <v>43802</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="30">
         <v>43805</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="30">
         <v>43807</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="14">
       <c r="A43" s="30">
         <v>43808</v>
       </c>
@@ -4748,13 +4748,13 @@
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4766,12 +4766,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4783,11 +4783,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="24" t="s">
         <v>39</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="14" t="s">
         <v>37</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="30">
         <v>43730</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14">
       <c r="A12" s="30">
         <v>43735</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="30">
         <v>43736</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="13" t="s">
         <v>97</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="14">
       <c r="A15" s="13" t="s">
         <v>96</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="30">
         <v>43742</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="30" t="s">
         <v>98</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13" t="s">
         <v>103</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14">
       <c r="A19" s="30" t="s">
         <v>102</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="30" t="s">
         <v>102</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="30" t="s">
         <v>107</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14">
       <c r="A22" s="13" t="s">
         <v>108</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="13" t="s">
         <v>100</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14">
       <c r="A24" s="13" t="s">
         <v>109</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14">
       <c r="A25" s="13" t="s">
         <v>106</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="14">
       <c r="A26" s="43" t="s">
         <v>114</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15">
       <c r="A27" s="13" t="s">
         <v>111</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="14">
       <c r="A28" s="13" t="s">
         <v>110</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="14">
       <c r="A29" s="13" t="s">
         <v>113</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="14">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="14">
       <c r="A31" s="13" t="s">
         <v>116</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="14">
       <c r="A32" s="13" t="s">
         <v>118</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="14">
       <c r="A33" s="13" t="s">
         <v>119</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="14">
       <c r="A34" s="13" t="s">
         <v>120</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15">
       <c r="A35" s="13" t="s">
         <v>121</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="14">
       <c r="A36" s="13" t="s">
         <v>122</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5435,7 +5435,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5462,14 +5462,14 @@
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5481,12 +5481,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5498,11 +5498,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="14">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14">
       <c r="A19" s="30">
         <v>43742</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="30">
         <v>43744</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="30">
         <v>43748</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14">
       <c r="A22" s="30">
         <v>43766</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="30">
         <v>43768</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14">
       <c r="A24" s="30">
         <v>43772</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="13">
         <v>43776</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="14">
       <c r="A26" s="30">
         <v>43779</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="14">
       <c r="A27" s="30">
         <v>43780</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="14">
       <c r="A28" s="13">
         <v>43783</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="14">
       <c r="A29" s="13">
         <v>43792</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="14">
       <c r="A30" s="13">
         <v>43793</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="14">
       <c r="A31" s="13">
         <v>43797</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="14">
       <c r="A32" s="13">
         <v>43797</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="14">
       <c r="A33" s="13">
         <v>43799</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="14">
       <c r="A34" s="13">
         <v>43800</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="14">
       <c r="A35" s="13">
         <v>43800</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="14">
       <c r="A36" s="13">
         <v>43804</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="14">
       <c r="A37" s="13">
         <v>43806</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="14">
       <c r="A38" s="13">
         <v>43806</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="14">
       <c r="A39" s="13">
         <v>43806</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="14">
       <c r="A40" s="13">
         <v>43807</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="14">
       <c r="A41" s="50">
         <v>43807</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="14">
       <c r="A42" s="50">
         <v>43807</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="14">
       <c r="A43" s="50">
         <v>43808</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="14">
       <c r="A44" s="50">
         <v>43808</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="14">
       <c r="A45" s="50">
         <v>43808</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="14">
       <c r="A46" s="50">
         <v>43808</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="14">
       <c r="A47" s="50">
         <v>43809</v>
       </c>
@@ -6375,20 +6375,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:F42"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -6400,12 +6400,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6417,11 +6417,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="30">
         <v>43728</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="30">
         <v>43729</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="30">
         <v>43730</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="13">
         <v>43735</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="30">
         <v>43736</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="13">
         <v>43742</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="13">
         <v>43747</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="30">
         <v>43748</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="30">
         <v>43748</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="30">
         <v>43749</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="30">
         <v>43750</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="30">
         <v>43751</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="30">
         <v>43764</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="30">
         <v>43764</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="30">
         <v>43774</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="13">
         <v>43777</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13">
         <v>43778</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="30">
         <v>43778</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13">
         <v>43785</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="30">
         <v>43791</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="30">
         <v>43794</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13">
         <v>43796</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="13">
         <v>43799</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="30">
         <v>43801</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="13">
         <v>43802</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="13">
         <v>43803</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="30">
         <v>43803</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="30">
         <v>43804</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="30">
         <v>43805</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="30">
         <v>43806</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="30">
         <v>43806</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="30">
         <v>43806</v>
       </c>
@@ -7179,6 +7179,46 @@
       </c>
       <c r="F42" s="26" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="30">
+        <v>43807</v>
+      </c>
+      <c r="B43" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C43" s="25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D43" s="28">
+        <v>100</v>
+      </c>
+      <c r="E43" s="28">
+        <v>720</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="30">
+        <v>43808</v>
+      </c>
+      <c r="B44" s="25">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C44" s="25">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D44" s="28">
+        <v>120</v>
+      </c>
+      <c r="E44" s="28">
+        <v>870</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -7200,14 +7240,14 @@
       <selection activeCell="A35" sqref="A35:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7219,12 +7259,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -7236,11 +7276,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7260,7 +7300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -7280,7 +7320,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -7300,7 +7340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -7320,7 +7360,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="13">
         <v>43727</v>
       </c>
@@ -7340,7 +7380,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="14">
         <v>43728</v>
       </c>
@@ -7360,7 +7400,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="13">
         <v>43730</v>
       </c>
@@ -7380,7 +7420,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="30">
         <v>43735</v>
       </c>
@@ -7400,7 +7440,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="30">
         <v>43736</v>
       </c>
@@ -7420,7 +7460,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="30">
         <v>43742</v>
       </c>
@@ -7440,7 +7480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="30">
         <v>43747</v>
       </c>
@@ -7460,7 +7500,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="30">
         <v>43748</v>
       </c>
@@ -7480,7 +7520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="30">
         <v>43763</v>
       </c>
@@ -7500,7 +7540,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="30">
         <v>43764</v>
       </c>
@@ -7520,7 +7560,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="30">
         <v>43764</v>
       </c>
@@ -7540,7 +7580,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14">
       <c r="A20" s="13">
         <v>43766</v>
       </c>
@@ -7560,7 +7600,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14">
       <c r="A21" s="30">
         <v>43778</v>
       </c>
@@ -7580,7 +7620,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14">
       <c r="A22" s="30">
         <v>43779</v>
       </c>
@@ -7600,7 +7640,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="30">
         <v>43780</v>
       </c>
@@ -7620,7 +7660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14">
       <c r="A24" s="30">
         <v>43783</v>
       </c>
@@ -7640,7 +7680,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14">
       <c r="A25" s="13">
         <v>43783</v>
       </c>
@@ -7660,7 +7700,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="14">
       <c r="A26" s="13">
         <v>43785</v>
       </c>
@@ -7680,7 +7720,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="14">
       <c r="A27" s="13">
         <v>43794</v>
       </c>
@@ -7700,7 +7740,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="14">
       <c r="A28" s="13">
         <v>43801</v>
       </c>
@@ -7720,7 +7760,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="14">
       <c r="A29" s="13">
         <v>43802</v>
       </c>
@@ -7740,7 +7780,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="14">
       <c r="A30" s="13">
         <v>43804</v>
       </c>
@@ -7760,7 +7800,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="14">
       <c r="A31" s="13">
         <v>43805</v>
       </c>
@@ -7780,7 +7820,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="14">
       <c r="A32" s="13">
         <v>43807</v>
       </c>
@@ -7800,7 +7840,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="14">
       <c r="A33" s="13">
         <v>43807</v>
       </c>
@@ -7820,7 +7860,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="14">
       <c r="A34" s="49">
         <v>43807</v>
       </c>
@@ -7840,7 +7880,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="14">
       <c r="A35" s="49">
         <v>43808</v>
       </c>
@@ -7876,30 +7916,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="36" t="s">
         <v>12</v>
       </c>
@@ -7916,7 +7956,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14">
       <c r="A5" s="20" t="s">
         <v>45</v>
       </c>
@@ -7934,7 +7974,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14">
       <c r="A6" s="38" t="s">
         <v>20</v>
       </c>
@@ -7954,7 +7994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14">
       <c r="A7" s="21" t="s">
         <v>18</v>
       </c>
@@ -7974,7 +8014,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14">
       <c r="A8" s="21" t="s">
         <v>19</v>
       </c>
@@ -7994,7 +8034,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14">
       <c r="A9" s="38" t="s">
         <v>25</v>
       </c>
@@ -8014,7 +8054,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14">
       <c r="A10" s="21" t="s">
         <v>27</v>
       </c>
@@ -8034,7 +8074,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14">
       <c r="A11" s="21" t="s">
         <v>32</v>
       </c>
@@ -8054,7 +8094,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14">
       <c r="A12" s="21" t="s">
         <v>51</v>
       </c>
@@ -8074,7 +8114,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14">
       <c r="A13" s="21" t="s">
         <v>53</v>
       </c>
@@ -8094,7 +8134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="14">
       <c r="A14" s="21" t="s">
         <v>57</v>
       </c>
@@ -8114,7 +8154,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="14">
       <c r="A15" s="21" t="s">
         <v>71</v>
       </c>
@@ -8134,7 +8174,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="14">
       <c r="A16" s="21" t="s">
         <v>75</v>
       </c>
@@ -8154,7 +8194,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14">
       <c r="A17" s="21" t="s">
         <v>76</v>
       </c>
@@ -8174,27 +8214,27 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="14">
       <c r="A18" s="21" t="s">
         <v>79</v>
       </c>
       <c r="B18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
-        <v>2920</v>
+        <v>3140</v>
       </c>
       <c r="C18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>14420</v>
+        <v>16010</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>11500</v>
+        <v>12870</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="14">
       <c r="A19" s="44"/>
       <c r="D19" s="45"/>
       <c r="E19" s="44"/>

--- a/최종 산출물/5조_PSP.xlsx
+++ b/최종 산출물/5조_PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/최종 산출물/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jin_k\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBAFA8F-813B-4C47-BC42-E07BE74F7241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76180BDA-6BB1-4350-B87B-751E4C4A0E49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="860" windowWidth="10000" windowHeight="10540" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김혜민" sheetId="1" r:id="rId1"/>
@@ -1274,7 +1274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="132">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3235,6 +3235,25 @@
   </si>
   <si>
     <t>개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 9일</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3252,7 +3271,7 @@
     <numFmt numFmtId="178" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
     <numFmt numFmtId="179" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3910,16 +3929,16 @@
       <selection activeCell="A43" sqref="A43:F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.75" customHeight="1">
+    <row r="1" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3931,10 +3950,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="11.75" customHeight="1">
+    <row r="2" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="11.75" customHeight="1">
+    <row r="3" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3946,8 +3965,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="28">
+    <row r="4" spans="1:8" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -3967,7 +3986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -3988,7 +4007,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43713</v>
       </c>
@@ -4009,7 +4028,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43714</v>
       </c>
@@ -4029,7 +4048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43715</v>
       </c>
@@ -4049,7 +4068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43717</v>
       </c>
@@ -4069,7 +4088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43725</v>
       </c>
@@ -4089,7 +4108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>43726</v>
       </c>
@@ -4109,7 +4128,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>43727</v>
       </c>
@@ -4129,7 +4148,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43728</v>
       </c>
@@ -4149,7 +4168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>43728</v>
       </c>
@@ -4169,7 +4188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14">
+    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>43728</v>
       </c>
@@ -4189,7 +4208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43730</v>
       </c>
@@ -4209,7 +4228,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43735</v>
       </c>
@@ -4229,7 +4248,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>43736</v>
       </c>
@@ -4249,7 +4268,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>43736</v>
       </c>
@@ -4269,7 +4288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>43742</v>
       </c>
@@ -4289,7 +4308,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>43745</v>
       </c>
@@ -4309,7 +4328,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14">
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>43745</v>
       </c>
@@ -4329,7 +4348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>43747</v>
       </c>
@@ -4349,7 +4368,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>43748</v>
       </c>
@@ -4369,7 +4388,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>43749</v>
       </c>
@@ -4389,7 +4408,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>43764</v>
       </c>
@@ -4409,7 +4428,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>43764</v>
       </c>
@@ -4429,7 +4448,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>43771</v>
       </c>
@@ -4449,7 +4468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14">
+    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>43776</v>
       </c>
@@ -4469,7 +4488,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>43778</v>
       </c>
@@ -4489,7 +4508,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>43781</v>
       </c>
@@ -4509,7 +4528,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43782</v>
       </c>
@@ -4529,7 +4548,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>43785</v>
       </c>
@@ -4549,7 +4568,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>43786</v>
       </c>
@@ -4569,7 +4588,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>43790</v>
       </c>
@@ -4589,7 +4608,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>43798</v>
       </c>
@@ -4609,7 +4628,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>43799</v>
       </c>
@@ -4629,7 +4648,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>43800</v>
       </c>
@@ -4649,7 +4668,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>43802</v>
       </c>
@@ -4669,7 +4688,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43805</v>
       </c>
@@ -4689,7 +4708,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43807</v>
       </c>
@@ -4709,7 +4728,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14">
+    <row r="43" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43808</v>
       </c>
@@ -4744,17 +4763,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4766,12 +4785,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4783,11 +4802,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -4807,7 +4826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -4827,7 +4846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>39</v>
       </c>
@@ -4847,7 +4866,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
@@ -4867,7 +4886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -4887,7 +4906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>37</v>
       </c>
@@ -4907,7 +4926,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>43730</v>
       </c>
@@ -4927,7 +4946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14">
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>43735</v>
       </c>
@@ -4947,7 +4966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14">
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>43736</v>
       </c>
@@ -4967,7 +4986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>97</v>
       </c>
@@ -4987,7 +5006,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14">
+    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>96</v>
       </c>
@@ -5007,7 +5026,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>43742</v>
       </c>
@@ -5027,7 +5046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14">
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>98</v>
       </c>
@@ -5047,7 +5066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>103</v>
       </c>
@@ -5067,7 +5086,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14">
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>102</v>
       </c>
@@ -5087,7 +5106,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>102</v>
       </c>
@@ -5107,7 +5126,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>107</v>
       </c>
@@ -5127,7 +5146,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14">
+    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>108</v>
       </c>
@@ -5147,7 +5166,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14">
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>100</v>
       </c>
@@ -5167,7 +5186,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14">
+    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>109</v>
       </c>
@@ -5187,7 +5206,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14">
+    <row r="25" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>106</v>
       </c>
@@ -5207,7 +5226,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14">
+    <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>114</v>
       </c>
@@ -5227,7 +5246,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>111</v>
       </c>
@@ -5247,7 +5266,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14">
+    <row r="28" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>110</v>
       </c>
@@ -5267,7 +5286,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14">
+    <row r="29" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>113</v>
       </c>
@@ -5287,7 +5306,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14">
+    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -5307,7 +5326,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14">
+    <row r="31" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>116</v>
       </c>
@@ -5327,7 +5346,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14">
+    <row r="32" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>118</v>
       </c>
@@ -5347,7 +5366,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14">
+    <row r="33" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>119</v>
       </c>
@@ -5367,7 +5386,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14">
+    <row r="34" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>120</v>
       </c>
@@ -5387,7 +5406,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15">
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>121</v>
       </c>
@@ -5407,7 +5426,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14">
+    <row r="36" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>122</v>
       </c>
@@ -5427,15 +5446,27 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6">
+    <row r="37" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C37" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D37" s="8">
+        <v>240</v>
+      </c>
+      <c r="E37" s="8">
+        <v>600</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5462,14 +5493,14 @@
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5481,12 +5512,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5498,11 +5529,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5522,7 +5553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -5542,7 +5573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -5562,7 +5593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43715</v>
       </c>
@@ -5582,7 +5613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>43717</v>
       </c>
@@ -5602,7 +5633,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>43725</v>
       </c>
@@ -5622,7 +5653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>43726</v>
       </c>
@@ -5642,7 +5673,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14">
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>43727</v>
       </c>
@@ -5662,7 +5693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14">
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>43728</v>
       </c>
@@ -5682,7 +5713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14">
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43730</v>
       </c>
@@ -5702,7 +5733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14">
+    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>43735</v>
       </c>
@@ -5722,7 +5753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>43738</v>
       </c>
@@ -5742,7 +5773,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14">
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43739</v>
       </c>
@@ -5762,7 +5793,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>43739</v>
       </c>
@@ -5782,7 +5813,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14">
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>43742</v>
       </c>
@@ -5802,7 +5833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>43744</v>
       </c>
@@ -5822,7 +5853,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>43748</v>
       </c>
@@ -5842,7 +5873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14">
+    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>43766</v>
       </c>
@@ -5862,7 +5893,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14">
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>43768</v>
       </c>
@@ -5882,7 +5913,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14">
+    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>43772</v>
       </c>
@@ -5902,7 +5933,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>43776</v>
       </c>
@@ -5922,7 +5953,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14">
+    <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>43779</v>
       </c>
@@ -5942,7 +5973,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14">
+    <row r="27" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>43780</v>
       </c>
@@ -5962,7 +5993,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14">
+    <row r="28" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>43783</v>
       </c>
@@ -5982,7 +6013,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14">
+    <row r="29" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>43792</v>
       </c>
@@ -6002,7 +6033,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14">
+    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>43793</v>
       </c>
@@ -6022,7 +6053,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14">
+    <row r="31" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>43797</v>
       </c>
@@ -6042,7 +6073,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14">
+    <row r="32" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>43797</v>
       </c>
@@ -6062,7 +6093,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14">
+    <row r="33" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43799</v>
       </c>
@@ -6082,7 +6113,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14">
+    <row r="34" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>43800</v>
       </c>
@@ -6102,7 +6133,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14">
+    <row r="35" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>43800</v>
       </c>
@@ -6122,7 +6153,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14">
+    <row r="36" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>43804</v>
       </c>
@@ -6142,7 +6173,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14">
+    <row r="37" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>43806</v>
       </c>
@@ -6162,7 +6193,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14">
+    <row r="38" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>43806</v>
       </c>
@@ -6182,7 +6213,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14">
+    <row r="39" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>43806</v>
       </c>
@@ -6202,7 +6233,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14">
+    <row r="40" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>43807</v>
       </c>
@@ -6222,7 +6253,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14">
+    <row r="41" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="50">
         <v>43807</v>
       </c>
@@ -6242,7 +6273,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14">
+    <row r="42" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="50">
         <v>43807</v>
       </c>
@@ -6262,7 +6293,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14">
+    <row r="43" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="50">
         <v>43808</v>
       </c>
@@ -6282,7 +6313,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14">
+    <row r="44" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="50">
         <v>43808</v>
       </c>
@@ -6302,7 +6333,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14">
+    <row r="45" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="50">
         <v>43808</v>
       </c>
@@ -6322,7 +6353,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14">
+    <row r="46" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="50">
         <v>43808</v>
       </c>
@@ -6342,7 +6373,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14">
+    <row r="47" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="50">
         <v>43809</v>
       </c>
@@ -6377,18 +6408,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -6400,12 +6431,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -6417,11 +6448,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6441,7 +6472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -6461,7 +6492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -6481,7 +6512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -6501,7 +6532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43726</v>
       </c>
@@ -6521,7 +6552,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43727</v>
       </c>
@@ -6541,7 +6572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>43728</v>
       </c>
@@ -6561,7 +6592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>43729</v>
       </c>
@@ -6581,7 +6612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>43730</v>
       </c>
@@ -6601,7 +6632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>43735</v>
       </c>
@@ -6621,7 +6652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>43736</v>
       </c>
@@ -6641,7 +6672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>43742</v>
       </c>
@@ -6661,7 +6692,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43747</v>
       </c>
@@ -6681,7 +6712,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>43748</v>
       </c>
@@ -6701,7 +6732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>43748</v>
       </c>
@@ -6721,7 +6752,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>43749</v>
       </c>
@@ -6741,7 +6772,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>43750</v>
       </c>
@@ -6761,7 +6792,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>43751</v>
       </c>
@@ -6781,7 +6812,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>43764</v>
       </c>
@@ -6801,7 +6832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>43764</v>
       </c>
@@ -6821,7 +6852,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>43774</v>
       </c>
@@ -6841,7 +6872,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>43777</v>
       </c>
@@ -6861,7 +6892,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>43778</v>
       </c>
@@ -6881,7 +6912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>43778</v>
       </c>
@@ -6901,7 +6932,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>43785</v>
       </c>
@@ -6921,7 +6952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>43791</v>
       </c>
@@ -6941,7 +6972,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>43794</v>
       </c>
@@ -6961,7 +6992,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>43796</v>
       </c>
@@ -6981,7 +7012,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43799</v>
       </c>
@@ -7001,7 +7032,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>43801</v>
       </c>
@@ -7021,7 +7052,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>43802</v>
       </c>
@@ -7041,7 +7072,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>43803</v>
       </c>
@@ -7061,7 +7092,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43803</v>
       </c>
@@ -7081,7 +7112,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43804</v>
       </c>
@@ -7101,7 +7132,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43805</v>
       </c>
@@ -7121,7 +7152,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43806</v>
       </c>
@@ -7141,7 +7172,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43806</v>
       </c>
@@ -7161,7 +7192,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43806</v>
       </c>
@@ -7181,7 +7212,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43807</v>
       </c>
@@ -7201,7 +7232,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43808</v>
       </c>
@@ -7240,14 +7271,14 @@
       <selection activeCell="A35" sqref="A35:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.5" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7259,12 +7290,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -7276,11 +7307,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7300,7 +7331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43713</v>
       </c>
@@ -7320,7 +7351,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43714</v>
       </c>
@@ -7340,7 +7371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43725</v>
       </c>
@@ -7360,7 +7391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43727</v>
       </c>
@@ -7380,7 +7411,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>43728</v>
       </c>
@@ -7400,7 +7431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>43730</v>
       </c>
@@ -7420,7 +7451,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>43735</v>
       </c>
@@ -7440,7 +7471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>43736</v>
       </c>
@@ -7460,7 +7491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43742</v>
       </c>
@@ -7480,7 +7511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>43747</v>
       </c>
@@ -7500,7 +7531,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>43748</v>
       </c>
@@ -7520,7 +7551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14">
+    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>43763</v>
       </c>
@@ -7540,7 +7571,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>43764</v>
       </c>
@@ -7560,7 +7591,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>43764</v>
       </c>
@@ -7580,7 +7611,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>43766</v>
       </c>
@@ -7600,7 +7631,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>43778</v>
       </c>
@@ -7620,7 +7651,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14">
+    <row r="22" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>43779</v>
       </c>
@@ -7640,7 +7671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14">
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>43780</v>
       </c>
@@ -7660,7 +7691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14">
+    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>43783</v>
       </c>
@@ -7680,7 +7711,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14">
+    <row r="25" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>43783</v>
       </c>
@@ -7700,7 +7731,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14">
+    <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>43785</v>
       </c>
@@ -7720,7 +7751,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14">
+    <row r="27" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>43794</v>
       </c>
@@ -7740,7 +7771,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14">
+    <row r="28" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>43801</v>
       </c>
@@ -7760,7 +7791,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14">
+    <row r="29" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>43802</v>
       </c>
@@ -7780,7 +7811,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14">
+    <row r="30" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>43804</v>
       </c>
@@ -7800,7 +7831,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14">
+    <row r="31" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>43805</v>
       </c>
@@ -7820,7 +7851,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14">
+    <row r="32" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>43807</v>
       </c>
@@ -7840,7 +7871,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14">
+    <row r="33" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43807</v>
       </c>
@@ -7860,7 +7891,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14">
+    <row r="34" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="49">
         <v>43807</v>
       </c>
@@ -7880,7 +7911,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14">
+    <row r="35" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="49">
         <v>43808</v>
       </c>
@@ -7920,26 +7951,26 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14">
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
         <v>12</v>
       </c>
@@ -7956,7 +7987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>45</v>
       </c>
@@ -7974,7 +8005,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" ht="14">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>20</v>
       </c>
@@ -7994,7 +8025,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>18</v>
       </c>
@@ -8014,7 +8045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>19</v>
       </c>
@@ -8034,7 +8065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>25</v>
       </c>
@@ -8054,7 +8085,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>27</v>
       </c>
@@ -8074,7 +8105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14">
+    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>32</v>
       </c>
@@ -8094,7 +8125,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14">
+    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>51</v>
       </c>
@@ -8114,7 +8145,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14">
+    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>53</v>
       </c>
@@ -8134,7 +8165,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14">
+    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>57</v>
       </c>
@@ -8154,7 +8185,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14">
+    <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>71</v>
       </c>
@@ -8174,7 +8205,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14">
+    <row r="16" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>75</v>
       </c>
@@ -8194,7 +8225,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14">
+    <row r="17" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>76</v>
       </c>
@@ -8214,27 +8245,27 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14">
+    <row r="18" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>79</v>
       </c>
       <c r="B18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!D:D)+SUMIF(박진근!F:F,TOTAL!A18,박진근!D:D)+SUMIF(이미정!F:F,TOTAL!A18,이미정!D:D)+SUMIF(정동연!F:F,TOTAL!A18,정동연!D:D)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!D:D)</f>
-        <v>3140</v>
+        <v>3380</v>
       </c>
       <c r="C18" s="37">
         <f>SUMIF(김혜민!F:F,TOTAL!A18,김혜민!E:E)+SUMIF(박진근!F:F,TOTAL!A18,박진근!E:E)+SUMIF(이미정!F:F,TOTAL!A18,이미정!E:E)+SUMIF(정동연!F:F,TOTAL!A18,정동연!E:E)+SUMIF(탁재인!F:F,TOTAL!A18,탁재인!E:E)</f>
-        <v>16010</v>
+        <v>16610</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18" si="4">C18-B18</f>
-        <v>12870</v>
+        <v>13230</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14">
+    <row r="19" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="D19" s="45"/>
       <c r="E19" s="44"/>
